--- a/Table/Table_xls/b冰封王座评级配置表.xlsx
+++ b/Table/Table_xls/b冰封王座评级配置表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -30,7 +30,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-不绑定
 1-绑定</t>
         </r>
@@ -45,7 +45,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-关联随机：后续“物品1类”~“物品8类”所有物品放在一起随即一次，只可获得一个种类。
 1-不关联随机：后续“物品1类”~“物品8类”每个类别各自随机，可同时获得多个种类。</t>
         </r>
@@ -60,7 +60,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 公告编号：没有时填0
 公告格式为4参数：
 参数1-角色名；
@@ -80,7 +80,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-不发
 1-发</t>
         </r>
@@ -95,7 +95,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 用于控制重要物品的总产出。
 填写方式：物品类型库id@总数量，多个物品用分号隔开。</t>
         </r>
@@ -110,7 +110,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-永不清除
 1-每日0点清除
 2-每周一0点清除
@@ -127,7 +127,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-不打
 1-打
 奖励ID打元宝标记则该奖励下所有物品均有元宝标记</t>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>id</t>
   </si>
@@ -649,7 +649,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -666,21 +672,161 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,8 +869,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -732,9 +1064,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -777,11 +1351,58 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -831,71 +1452,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1113,24 +1734,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="5" width="7.5" style="10"/>
     <col min="6" max="6" width="34.75" style="10" customWidth="1"/>
     <col min="7" max="16384" width="7.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" ht="66" customHeight="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1170,7 +1793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1190,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1210,7 +1833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1230,27 +1853,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
+    <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B16384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -1265,7 +1889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1878,10 +2502,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:1">
       <c r="A79" s="9"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:1">
       <c r="A80" s="9"/>
     </row>
     <row r="81" spans="1:1">
@@ -50797,23 +51421,26 @@
       <c r="A16384" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>